--- a/AccuracyResult.xlsx
+++ b/AccuracyResult.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eva/Desktop/VideoActionPrediction/VideoActionPrediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005629F9-5A85-C149-AB7E-5F982A613B7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE21CD7-475E-564D-B76F-B17F698D39F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{54D5D084-128D-1E4B-B31B-0903185210F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="10" xr2:uid="{54D5D084-128D-1E4B-B31B-0903185210F6}"/>
   </bookViews>
   <sheets>
     <sheet name="All action seg" sheetId="1" r:id="rId1"/>
     <sheet name="Model1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId4"/>
-    <sheet name="Model2" sheetId="4" r:id="rId5"/>
-    <sheet name="Model3" sheetId="5" r:id="rId6"/>
-    <sheet name="Model4" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId9"/>
+    <sheet name="train all result" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId5"/>
+    <sheet name="Model2" sheetId="4" r:id="rId6"/>
+    <sheet name="Model3" sheetId="5" r:id="rId7"/>
+    <sheet name="Model4" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Model1!$A$2:$D$8</definedName>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="208">
   <si>
     <t>Timestep 1</t>
   </si>
@@ -402,6 +404,273 @@
   </si>
   <si>
     <t>lstm single action</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.72864</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.75235</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.77915</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.78425</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.81602</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.80523</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.83156</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.8499</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.89743</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.80079</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.78314</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.80284</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.79553</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.82676</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.81859</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.83092</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.82219</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.85171</t>
+  </si>
+  <si>
+    <t>no shuffle  model 1</t>
+  </si>
+  <si>
+    <t>Model:  TCN      With_Activity:  No</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.71896</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.76096</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.7971</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.799</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.83421</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.81722</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.84188</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.85609</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.90245</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.80875</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.80186</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.82433</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.8076</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.82038</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.81399</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.84147</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.85569</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.90366</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.73421</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.76326</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.79418</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.79803</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.8387</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.82678</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.84994</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.84496</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.87409</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.81422</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.79393</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.81197</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.80239</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.8201</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.80499</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.8259</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.84691</t>
+  </si>
+  <si>
+    <t>Accuracy: 0.89436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76357  0.7746  0.82105  0.83194  0.86685  0.86978  0.88513  0.89957  0.92096  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8564  0.93708  0.96795  0.97625  0.99065  0.99603  1.0  1.0  1.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76412  0.79672  0.83193  0.83495  0.87557  0.88433  0.90261  0.90954  0.92645  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86735  0.9459  0.97239  0.98206  0.99872  1.0  1.0  1.0  1.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74776  0.78841  0.824  0.84172  0.90032  0.88699  0.89765  0.91143  0.91518  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86922  0.9459  0.97239  0.98206  0.99872  1.0  1.0  1.0  1.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75768  0.76814  0.79459  0.81468  0.83996  0.84605  0.86445  0.8715  0.89104  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871  0.93613  0.96751  0.98206  0.99872  1.0  1.0  1.0  1.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76138  0.7801  0.81798  0.84583  0.89573  0.90135  0.91673  0.91898  0.93089  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86167  0.94335  0.96694  0.98671  0.99872  1.0  1.0  1.0  1.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76354  0.80161  0.82596  0.84144  0.89494  0.89572  0.89543  0.90744  0.92649  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86454  0.93603  0.96591  0.98671  0.99872  1.0  1.0  1.0  1.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85704  0.9269  0.95369  0.99007  1.0  1.0  1.0  1.0  1.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75836  0.76893  0.8096  0.81762  0.86787  0.87831  0.88976  0.901  0.92835  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84637  0.9208  0.95042  0.99007  0.99628  0.99492  1.0  1.0  1.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7584  0.78132  0.82074  0.83846  0.88494  0.88132  0.90704  0.91784  0.93718  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85552  0.92654  0.96599  0.98542  1.0  1.0  1.0  1.0  1.0  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73593  0.77579  0.82899  0.84169  0.89738  0.89429  0.90803  0.90784  0.91391  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73861  0.78266  0.8115  0.81863  0.84923  0.84943  0.8544  0.86924  0.89466  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.83704  0.92095  0.96051  0.98439  0.99623  0.99946  1.0  1.0  1.0  </t>
+  </si>
+  <si>
+    <t>model6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75726  0.78767  0.81449  0.83371  0.88787  0.89739  0.90377  0.90681  0.92054  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75543  0.79343  0.82505  0.84163  0.88953  0.90315  0.91522  0.92554  0.93195  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8512  0.9426  0.9728  0.98392  0.99872  1.0  1.0  1.0  1.0  </t>
+  </si>
+  <si>
+    <t>WO activity</t>
+  </si>
+  <si>
+    <t>W activity</t>
+  </si>
+  <si>
+    <t>gaol Acc</t>
+  </si>
+  <si>
+    <t>model5</t>
+  </si>
+  <si>
+    <t>0.9728  0</t>
+  </si>
+  <si>
+    <t>.98392  0</t>
+  </si>
+  <si>
+    <t>.99872  1</t>
+  </si>
+  <si>
+    <t>early fusion</t>
   </si>
 </sst>
 </file>
@@ -675,7 +944,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -778,13 +1047,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent6" xfId="1" builtinId="51"/>
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="162">
+  <dxfs count="237">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -819,6 +1110,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -841,6 +1142,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -863,6 +1174,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -885,6 +1206,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -907,6 +1238,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -929,16 +1270,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -961,16 +1292,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -993,16 +1314,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1025,16 +1336,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1057,16 +1358,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1089,16 +1380,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1155,16 +1436,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1177,16 +1448,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1199,16 +1460,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1231,6 +1482,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1253,6 +1514,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1275,6 +1546,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1297,6 +1578,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1309,6 +1600,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1321,6 +1632,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1377,6 +1708,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1411,6 +1752,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1445,6 +1796,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1479,6 +1840,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1491,16 +1862,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1547,6 +1908,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1581,6 +1952,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1615,6 +1996,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1637,6 +2028,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1649,6 +2050,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1671,6 +2092,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1683,6 +2114,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1705,6 +2156,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1717,6 +2178,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1751,6 +2232,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1785,6 +2276,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1819,6 +2320,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -1830,252 +2341,9 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2096,6 +2364,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -2108,6 +2386,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -2144,6 +2432,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -2156,6 +2454,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -2179,6 +2487,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2210,6 +2521,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2241,6 +2555,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2272,6 +2589,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2303,6 +2623,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2334,6 +2657,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2365,6 +2691,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2396,6 +2725,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2427,6 +2759,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2459,6 +2794,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -2483,6 +2828,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
@@ -2504,6 +2859,750 @@
           <fgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2519,7 +3618,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BB767080-4079-784D-B585-E9F101425BEB}" name="Table5" displayName="Table5" ref="A1:Z35" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BB767080-4079-784D-B585-E9F101425BEB}" name="Table5" displayName="Table5" ref="A1:Z35" totalsRowShown="0" headerRowDxfId="236" dataDxfId="235" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:Z35" xr:uid="{34F22025-55DD-F949-BF77-1A7EF9EF0F87}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2549,32 +3648,32 @@
     <filterColumn colId="25" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{01FF0CEA-1CCD-4B47-8A01-6ECF237A3075}" name="Data %" dataDxfId="119" dataCellStyle="40% - Accent6"/>
-    <tableColumn id="2" xr3:uid="{5BF1C6AD-783B-1F42-B9CA-05148020176B}" name="W/WOActivity" dataDxfId="118" dataCellStyle="40% - Accent6"/>
-    <tableColumn id="3" xr3:uid="{19FE40C7-C527-1D4F-B1D7-24A56A42FF24}" name="model" dataDxfId="117" dataCellStyle="40% - Accent6"/>
-    <tableColumn id="4" xr3:uid="{8061DF4F-CF13-AE4F-95F9-C8A773162843}" name="Timestep 1" dataDxfId="116" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{67C7C839-27F2-4B40-BC45-FA1BD3069280}" name="Timestep 2" dataDxfId="115" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{79E1BDD2-F461-CB4D-A9E5-2378E21F97ED}" name="Timestep 3" dataDxfId="114" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{F77EFAC9-82B7-3E4C-9D44-FD1E19108A7E}" name="Timestep 4" dataDxfId="113" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{88872935-AA1E-3E4A-A928-F7624742C648}" name="Timestep 5" dataDxfId="112" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{053F9905-0598-2E4E-8228-10E226FFD03F}" name="Timestep 6" dataDxfId="111" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{9E4E37B2-4E52-D74A-918F-1CAB1021F1B6}" name="Timestep 7" dataDxfId="110" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{35F7FFF5-6A73-FF43-AB1E-4E2083E28D8F}" name="Timestep 8" dataDxfId="109" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{849E7E85-A5EC-D14C-8C18-B1209985985B}" name="Timestep 9" dataDxfId="108" dataCellStyle="Normal"/>
-    <tableColumn id="13" xr3:uid="{05F86816-9A17-A146-9BEC-7FD6C6C6850B}" name="Timestep 10" dataDxfId="107" dataCellStyle="Normal"/>
-    <tableColumn id="14" xr3:uid="{41ED6298-8726-3544-A05D-6A0771B8029A}" name="Timestep 11" dataDxfId="106" dataCellStyle="Normal"/>
-    <tableColumn id="15" xr3:uid="{6472DECB-79A0-EB4C-AA79-277CE4C1356D}" name="Timestep 12" dataDxfId="105" dataCellStyle="Normal"/>
-    <tableColumn id="16" xr3:uid="{184793B6-38B0-594C-A303-5B26393DB8A3}" name="Timestep 13" dataDxfId="104" dataCellStyle="Normal"/>
-    <tableColumn id="17" xr3:uid="{F340E4C7-7F3B-EA48-AA3B-0C1224E34DB2}" name="Timestep 14" dataDxfId="103" dataCellStyle="Normal"/>
-    <tableColumn id="18" xr3:uid="{5442AF1A-DC7E-BF44-9998-5DF6C3A41E4A}" name="Timestep 15" dataDxfId="102" dataCellStyle="Normal"/>
-    <tableColumn id="19" xr3:uid="{CBF80C63-F796-3446-8EFF-034613FBDAE7}" name="Timestep 16" dataDxfId="101" dataCellStyle="Normal"/>
-    <tableColumn id="20" xr3:uid="{7162080E-BD9A-8143-BFA8-805E85F65311}" name="Timestep 17" dataDxfId="100" dataCellStyle="Normal"/>
-    <tableColumn id="21" xr3:uid="{9A64A664-7EE0-9244-826C-FD90654BE103}" name="Timestep 18" dataDxfId="99" dataCellStyle="Normal"/>
-    <tableColumn id="22" xr3:uid="{8D68BDB2-7EF4-4241-892E-C95FB9B8BD64}" name="Timestep 19" dataDxfId="98" dataCellStyle="Normal"/>
-    <tableColumn id="23" xr3:uid="{47DD11A7-4D59-3C49-8897-B3977FBDF334}" name="Timestep 20" dataDxfId="97" dataCellStyle="Normal"/>
-    <tableColumn id="24" xr3:uid="{B05EB041-4094-8F4F-BF94-93D75C73CC21}" name="Timestep 21" dataDxfId="96" dataCellStyle="Normal"/>
-    <tableColumn id="25" xr3:uid="{D1B1B027-E72F-F946-ABD9-66C2410C40A3}" name="Timestep 22" dataDxfId="95" dataCellStyle="Normal"/>
-    <tableColumn id="26" xr3:uid="{42FBEA73-C197-494A-B20B-968ED7A1F3FE}" name="Timestep 23" dataDxfId="94" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{01FF0CEA-1CCD-4B47-8A01-6ECF237A3075}" name="Data %" dataDxfId="234" dataCellStyle="40% - Accent6"/>
+    <tableColumn id="2" xr3:uid="{5BF1C6AD-783B-1F42-B9CA-05148020176B}" name="W/WOActivity" dataDxfId="233" dataCellStyle="40% - Accent6"/>
+    <tableColumn id="3" xr3:uid="{19FE40C7-C527-1D4F-B1D7-24A56A42FF24}" name="model" dataDxfId="232" dataCellStyle="40% - Accent6"/>
+    <tableColumn id="4" xr3:uid="{8061DF4F-CF13-AE4F-95F9-C8A773162843}" name="Timestep 1" dataDxfId="231" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{67C7C839-27F2-4B40-BC45-FA1BD3069280}" name="Timestep 2" dataDxfId="230" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{79E1BDD2-F461-CB4D-A9E5-2378E21F97ED}" name="Timestep 3" dataDxfId="229" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{F77EFAC9-82B7-3E4C-9D44-FD1E19108A7E}" name="Timestep 4" dataDxfId="228" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{88872935-AA1E-3E4A-A928-F7624742C648}" name="Timestep 5" dataDxfId="227" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{053F9905-0598-2E4E-8228-10E226FFD03F}" name="Timestep 6" dataDxfId="226" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{9E4E37B2-4E52-D74A-918F-1CAB1021F1B6}" name="Timestep 7" dataDxfId="225" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{35F7FFF5-6A73-FF43-AB1E-4E2083E28D8F}" name="Timestep 8" dataDxfId="224" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{849E7E85-A5EC-D14C-8C18-B1209985985B}" name="Timestep 9" dataDxfId="223" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{05F86816-9A17-A146-9BEC-7FD6C6C6850B}" name="Timestep 10" dataDxfId="222" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{41ED6298-8726-3544-A05D-6A0771B8029A}" name="Timestep 11" dataDxfId="221" dataCellStyle="Normal"/>
+    <tableColumn id="15" xr3:uid="{6472DECB-79A0-EB4C-AA79-277CE4C1356D}" name="Timestep 12" dataDxfId="220" dataCellStyle="Normal"/>
+    <tableColumn id="16" xr3:uid="{184793B6-38B0-594C-A303-5B26393DB8A3}" name="Timestep 13" dataDxfId="219" dataCellStyle="Normal"/>
+    <tableColumn id="17" xr3:uid="{F340E4C7-7F3B-EA48-AA3B-0C1224E34DB2}" name="Timestep 14" dataDxfId="218" dataCellStyle="Normal"/>
+    <tableColumn id="18" xr3:uid="{5442AF1A-DC7E-BF44-9998-5DF6C3A41E4A}" name="Timestep 15" dataDxfId="217" dataCellStyle="Normal"/>
+    <tableColumn id="19" xr3:uid="{CBF80C63-F796-3446-8EFF-034613FBDAE7}" name="Timestep 16" dataDxfId="216" dataCellStyle="Normal"/>
+    <tableColumn id="20" xr3:uid="{7162080E-BD9A-8143-BFA8-805E85F65311}" name="Timestep 17" dataDxfId="215" dataCellStyle="Normal"/>
+    <tableColumn id="21" xr3:uid="{9A64A664-7EE0-9244-826C-FD90654BE103}" name="Timestep 18" dataDxfId="214" dataCellStyle="Normal"/>
+    <tableColumn id="22" xr3:uid="{8D68BDB2-7EF4-4241-892E-C95FB9B8BD64}" name="Timestep 19" dataDxfId="213" dataCellStyle="Normal"/>
+    <tableColumn id="23" xr3:uid="{47DD11A7-4D59-3C49-8897-B3977FBDF334}" name="Timestep 20" dataDxfId="212" dataCellStyle="Normal"/>
+    <tableColumn id="24" xr3:uid="{B05EB041-4094-8F4F-BF94-93D75C73CC21}" name="Timestep 21" dataDxfId="211" dataCellStyle="Normal"/>
+    <tableColumn id="25" xr3:uid="{D1B1B027-E72F-F946-ABD9-66C2410C40A3}" name="Timestep 22" dataDxfId="210" dataCellStyle="Normal"/>
+    <tableColumn id="26" xr3:uid="{42FBEA73-C197-494A-B20B-968ED7A1F3FE}" name="Timestep 23" dataDxfId="209" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -5439,202 +6538,202 @@
   <dataConsolidate/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="P30:Z30 P32:Z32 P34:Z34">
-    <cfRule type="cellIs" dxfId="161" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="65" operator="greaterThan">
       <formula>P31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:Z31 P33:Z33 P35:Z35">
-    <cfRule type="cellIs" dxfId="160" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="207" priority="64" operator="greaterThan">
       <formula>P30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2 Z4 Z6">
-    <cfRule type="cellIs" dxfId="159" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="206" priority="56" operator="greaterThan">
       <formula>Z3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3 Z5 Z7">
-    <cfRule type="cellIs" dxfId="158" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="205" priority="55" operator="greaterThan">
       <formula>Z2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9 D11 D13">
-    <cfRule type="cellIs" dxfId="157" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="204" priority="47" operator="greaterThan">
       <formula>D10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10 D12 D14">
-    <cfRule type="cellIs" dxfId="156" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="203" priority="46" operator="greaterThan">
       <formula>D9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D14">
-    <cfRule type="expression" dxfId="155" priority="45">
+    <cfRule type="expression" dxfId="202" priority="45">
       <formula>D9=MAX(D$9:D$14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18 D20">
-    <cfRule type="cellIs" dxfId="154" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="201" priority="41" operator="greaterThan">
       <formula>D17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17 D19 D21">
-    <cfRule type="cellIs" dxfId="153" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="200" priority="40" operator="greaterThan">
       <formula>D16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D21">
-    <cfRule type="expression" dxfId="152" priority="39">
+    <cfRule type="expression" dxfId="199" priority="39">
       <formula>D16=MAX(D$16:D$21)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23 D25 D27">
-    <cfRule type="cellIs" dxfId="151" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="35" operator="greaterThan">
       <formula>D24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24 D26 D28">
-    <cfRule type="cellIs" dxfId="150" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="197" priority="34" operator="greaterThan">
       <formula>D23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D28">
-    <cfRule type="expression" dxfId="149" priority="33">
+    <cfRule type="expression" dxfId="196" priority="33">
       <formula>D23=MAX(D$23:D$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30 D32 D34">
-    <cfRule type="cellIs" dxfId="148" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="195" priority="27" operator="greaterThan">
       <formula>D31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31 D33 D35">
-    <cfRule type="cellIs" dxfId="147" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="194" priority="26" operator="greaterThan">
       <formula>D30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D35">
-    <cfRule type="expression" dxfId="146" priority="25">
+    <cfRule type="expression" dxfId="193" priority="25">
       <formula>D30=MAX(D$30:D$35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:O30 E32:O32 E34:O34">
-    <cfRule type="cellIs" dxfId="145" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="192" priority="24" operator="greaterThan">
       <formula>E31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:O31 E33:O33 E35:O35">
-    <cfRule type="cellIs" dxfId="144" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="191" priority="23" operator="greaterThan">
       <formula>E30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:O35">
-    <cfRule type="expression" dxfId="143" priority="22">
+    <cfRule type="expression" dxfId="190" priority="22">
       <formula>E30=MAX(E$30:E$35)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:O23 E25:O25 E27:O27">
-    <cfRule type="cellIs" dxfId="142" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="189" priority="21" operator="greaterThan">
       <formula>E24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:O24 E26:O26 E28:O28">
-    <cfRule type="cellIs" dxfId="141" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="188" priority="20" operator="greaterThan">
       <formula>E23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:O28">
-    <cfRule type="expression" dxfId="140" priority="19">
+    <cfRule type="expression" dxfId="187" priority="19">
       <formula>E23=MAX(E$23:E$28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:Q16 E18:Q18 E20:Q20">
-    <cfRule type="cellIs" dxfId="139" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="186" priority="18" operator="greaterThan">
       <formula>E17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:Q17 E19:Q19 E21:Q21">
-    <cfRule type="cellIs" dxfId="138" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="17" operator="greaterThan">
       <formula>E16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:Q21">
-    <cfRule type="expression" dxfId="137" priority="16">
+    <cfRule type="expression" dxfId="184" priority="16">
       <formula>E16=MAX(E$16:E$21)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:T9 E11:T11 E13:T13">
-    <cfRule type="cellIs" dxfId="136" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="15" operator="greaterThan">
       <formula>E10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:T10 E12:T12 E14:T14">
-    <cfRule type="cellIs" dxfId="135" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="14" operator="greaterThan">
       <formula>E9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:T14">
-    <cfRule type="expression" dxfId="134" priority="13">
+    <cfRule type="expression" dxfId="181" priority="13">
       <formula>E9=MAX(E$9:E$14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:Y2 E4:Y4 E6:Y6">
-    <cfRule type="cellIs" dxfId="133" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="12" operator="greaterThan">
       <formula>E3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:Y3 E5:Y5 E7:Y7">
-    <cfRule type="cellIs" dxfId="132" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="11" operator="greaterThan">
       <formula>E2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:Y7">
-    <cfRule type="expression" dxfId="131" priority="10">
+    <cfRule type="expression" dxfId="178" priority="10">
       <formula>E2=MAX(E$2:E$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9:Z9 U11:Z11 U13:Z13">
-    <cfRule type="cellIs" dxfId="130" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="9" operator="greaterThan">
       <formula>U10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10:Z10 U12:Z12 U14:Z14">
-    <cfRule type="cellIs" dxfId="129" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="8" operator="greaterThan">
       <formula>U9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:Z16 R18:Z18 R20:Z20">
-    <cfRule type="cellIs" dxfId="128" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="7" operator="greaterThan">
       <formula>R17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17:Z17 R19:Z19 R21:Z21">
-    <cfRule type="cellIs" dxfId="127" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="6" operator="greaterThan">
       <formula>R16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:Z23 P25:Z25 P27:Z27">
-    <cfRule type="cellIs" dxfId="126" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="5" operator="greaterThan">
       <formula>P24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Z24 P26:Z26 P28:Z28">
-    <cfRule type="cellIs" dxfId="125" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="4" operator="greaterThan">
       <formula>P23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2 D4 D6">
-    <cfRule type="cellIs" dxfId="124" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="3" operator="greaterThan">
       <formula>D3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D5 D7">
-    <cfRule type="cellIs" dxfId="123" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="2" operator="greaterThan">
       <formula>D2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D7">
-    <cfRule type="expression" dxfId="122" priority="1">
+    <cfRule type="expression" dxfId="169" priority="1">
       <formula>D2=MAX(D$2:D$7)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5646,12 +6745,2285 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB745AC-C3D6-E64C-8099-09FCDDE94C4C}">
+  <dimension ref="A1:N45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="9" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.69740000000000002</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0.85355000000000003</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0.69945000000000002</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.84438999999999997</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0.69845000000000002</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0.85297000000000001</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0.70165999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.73097000000000001</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.83203000000000005</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0.73514999999999997</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.84943999999999997</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.72219</v>
+      </c>
+      <c r="H4" s="22">
+        <v>0.84292</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.71933999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.85563999999999996</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0.72743999999999998</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.71735000000000004</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0.85382000000000002</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0.72572999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.73245000000000005</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.92466000000000004</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.73892999999999998</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.93328</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0.72069000000000005</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0.93271000000000004</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0.74951000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.73196000000000006</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.93103000000000002</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.72962000000000005</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.92352000000000001</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0.75105999999999995</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0.76776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.73706000000000005</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.92617000000000005</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.73834</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.92840999999999996</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0.73929</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0.92861000000000005</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0.76007000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.77795999999999998</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.95960999999999996</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0.76992000000000005</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.96165999999999996</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0.75895000000000001</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0.80042000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.77432000000000001</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.95592999999999995</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.76200999999999997</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0.94955000000000001</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0.77861000000000002</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0.94942000000000004</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0.78310999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.77095999999999998</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.96255999999999997</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0.76136999999999999</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0.95931999999999995</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.76658999999999999</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0.96021999999999996</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0.77370000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0.80715999999999999</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.99007000000000001</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0.79352</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0.97731999999999997</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0.80078000000000005</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0.99007000000000001</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0.80103000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0.78561999999999999</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0.99007000000000001</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.78995000000000004</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.98541999999999996</v>
+      </c>
+      <c r="G16" s="22">
+        <v>0.79520000000000002</v>
+      </c>
+      <c r="H16" s="22">
+        <v>0.99007000000000001</v>
+      </c>
+      <c r="I16" s="23">
+        <v>0.78147999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.79239999999999999</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0.98682000000000003</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.78949000000000003</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0.99007000000000001</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0.78173000000000004</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0.99007000000000001</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0.79627999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0.85775000000000001</v>
+      </c>
+      <c r="D19" s="22">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0.85041</v>
+      </c>
+      <c r="F19" s="22">
+        <v>0.99872000000000005</v>
+      </c>
+      <c r="G19" s="23">
+        <v>0.84724999999999995</v>
+      </c>
+      <c r="H19" s="22">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23">
+        <v>0.85338999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0.84772999999999998</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0.99883999999999995</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0.84733000000000003</v>
+      </c>
+      <c r="F20" s="22">
+        <v>1</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0.84694000000000003</v>
+      </c>
+      <c r="H20" s="22">
+        <v>1</v>
+      </c>
+      <c r="I20" s="23">
+        <v>0.83745000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0.86216999999999999</v>
+      </c>
+      <c r="D21" s="22">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0.84894000000000003</v>
+      </c>
+      <c r="F21" s="22">
+        <v>1</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="H21" s="22">
+        <v>1</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0.84226000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0.69740000000000002</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0.69945000000000002</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0.69845000000000002</v>
+      </c>
+      <c r="F26" s="22">
+        <v>0.70165999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="22">
+        <v>0.73097000000000001</v>
+      </c>
+      <c r="D27" s="22">
+        <v>0.73514999999999997</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0.72219</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0.71933999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0.72743999999999998</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0.71735000000000004</v>
+      </c>
+      <c r="F28" s="22">
+        <v>0.72572999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="22">
+        <v>0.73245000000000005</v>
+      </c>
+      <c r="D30" s="22">
+        <v>0.73892999999999998</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0.72069000000000005</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0.74951000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="22">
+        <v>0.73196000000000006</v>
+      </c>
+      <c r="D31" s="23">
+        <v>0.72962000000000005</v>
+      </c>
+      <c r="E31" s="22">
+        <v>0.75105999999999995</v>
+      </c>
+      <c r="F31" s="22">
+        <v>0.76776</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="22">
+        <v>0.73706000000000005</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0.73834</v>
+      </c>
+      <c r="E32" s="22">
+        <v>0.73929</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0.76007000000000002</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+    </row>
+    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="H33" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+    </row>
+    <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="22">
+        <v>0.77795999999999998</v>
+      </c>
+      <c r="D34" s="23">
+        <v>0.76992000000000005</v>
+      </c>
+      <c r="E34" s="23">
+        <v>0.75895000000000001</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0.80042000000000002</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+    </row>
+    <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="22">
+        <v>0.77432000000000001</v>
+      </c>
+      <c r="D35" s="23">
+        <v>0.76200999999999997</v>
+      </c>
+      <c r="E35" s="22">
+        <v>0.77861000000000002</v>
+      </c>
+      <c r="F35" s="22">
+        <v>0.78310999999999997</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="22">
+        <v>0.77095999999999998</v>
+      </c>
+      <c r="D36" s="23">
+        <v>0.76136999999999999</v>
+      </c>
+      <c r="E36" s="23">
+        <v>0.76658999999999999</v>
+      </c>
+      <c r="F36" s="22">
+        <v>0.77370000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="22">
+        <v>0.80715999999999999</v>
+      </c>
+      <c r="D38" s="23">
+        <v>0.79352</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0.80078000000000005</v>
+      </c>
+      <c r="F38" s="23">
+        <v>0.80103000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="22">
+        <v>0.78561999999999999</v>
+      </c>
+      <c r="D39" s="22">
+        <v>0.78995000000000004</v>
+      </c>
+      <c r="E39" s="22">
+        <v>0.79520000000000002</v>
+      </c>
+      <c r="F39" s="23">
+        <v>0.78147999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="22">
+        <v>0.79239999999999999</v>
+      </c>
+      <c r="D40" s="23">
+        <v>0.78949000000000003</v>
+      </c>
+      <c r="E40" s="23">
+        <v>0.78173000000000004</v>
+      </c>
+      <c r="F40" s="22">
+        <v>0.79627999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="22">
+        <v>0.85775000000000001</v>
+      </c>
+      <c r="D42" s="23">
+        <v>0.85041</v>
+      </c>
+      <c r="E42" s="23">
+        <v>0.84724999999999995</v>
+      </c>
+      <c r="F42" s="23">
+        <v>0.85338999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="22">
+        <v>0.84772999999999998</v>
+      </c>
+      <c r="D43" s="23">
+        <v>0.84733000000000003</v>
+      </c>
+      <c r="E43" s="23">
+        <v>0.84694000000000003</v>
+      </c>
+      <c r="F43" s="23">
+        <v>0.83745000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="22">
+        <v>0.86216999999999999</v>
+      </c>
+      <c r="D44" s="23">
+        <v>0.84894000000000003</v>
+      </c>
+      <c r="E44" s="23">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="F44" s="23">
+        <v>0.84226000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="86" priority="43" operator="greaterThan">
+      <formula>C5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="85" priority="42">
+      <formula>C6=MAX(C6:C11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 C14">
+    <cfRule type="cellIs" dxfId="84" priority="41" operator="greaterThan">
+      <formula>C11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 C14">
+    <cfRule type="expression" dxfId="83" priority="40">
+      <formula>C10=MAX(C10:C15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18 C22">
+    <cfRule type="cellIs" dxfId="82" priority="39" operator="greaterThan">
+      <formula>C17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18 C22">
+    <cfRule type="expression" dxfId="81" priority="38">
+      <formula>C18=MAX(C$17:C$22)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="cellIs" dxfId="80" priority="6" operator="greaterThan">
+      <formula>C28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="79" priority="5">
+      <formula>C29=MAX(C29:C34)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33 C37">
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="greaterThan">
+      <formula>C34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33 C37">
+    <cfRule type="expression" dxfId="77" priority="3">
+      <formula>C33=MAX(C33:C38)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41 C45">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="greaterThan">
+      <formula>C40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41 C45">
+    <cfRule type="expression" dxfId="75" priority="1">
+      <formula>C41=MAX(C$17:C$22)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BDB34A-2D78-EC40-ADAF-B9563CAA22AE}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="5" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="41"/>
+      <c r="K1" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="41"/>
+      <c r="M1" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="41"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.72863999999999995</v>
+      </c>
+      <c r="D3" s="42">
+        <v>0.80079</v>
+      </c>
+      <c r="E3" s="43">
+        <v>0.76356999999999997</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="G3" s="43">
+        <v>0.75768000000000002</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.871</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="43">
+        <v>0.75836000000000003</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.85704000000000002</v>
+      </c>
+      <c r="M3" s="43">
+        <v>0.73860999999999999</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.83704000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.71896000000000004</v>
+      </c>
+      <c r="D4" s="42">
+        <v>0.80874999999999997</v>
+      </c>
+      <c r="E4" s="43">
+        <v>0.76412000000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.86734999999999995</v>
+      </c>
+      <c r="G4" s="43">
+        <v>0.76137999999999995</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.86167000000000005</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="43">
+        <v>0.75839999999999996</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.84636999999999996</v>
+      </c>
+      <c r="M4" s="43">
+        <v>0.75726000000000004</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.86921999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.73421000000000003</v>
+      </c>
+      <c r="D5" s="42">
+        <v>0.81422000000000005</v>
+      </c>
+      <c r="E5" s="43">
+        <v>0.74775999999999998</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.86921999999999999</v>
+      </c>
+      <c r="G5" s="43">
+        <v>0.76354</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.86453999999999998</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="43">
+        <v>0.73592999999999997</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.85551999999999995</v>
+      </c>
+      <c r="M5" s="43">
+        <v>0.75543000000000005</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.85119999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.75234999999999996</v>
+      </c>
+      <c r="D7" s="42">
+        <v>0.78313999999999995</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.93708000000000002</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0.76814000000000004</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.93613000000000002</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="43">
+        <v>0.76893</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="M7" s="43">
+        <v>0.78266000000000002</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.92095000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.76095999999999997</v>
+      </c>
+      <c r="D8" s="42">
+        <v>0.80186000000000002</v>
+      </c>
+      <c r="E8" s="43">
+        <v>0.79671999999999998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="G8" s="43">
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.94335000000000002</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="43">
+        <v>0.78132000000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="M8" s="43">
+        <v>0.78766999999999998</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.94589999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.76326000000000005</v>
+      </c>
+      <c r="D9" s="42">
+        <v>0.79393000000000002</v>
+      </c>
+      <c r="E9" s="43">
+        <v>0.78841000000000006</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="G9" s="43">
+        <v>0.80161000000000004</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.93603000000000003</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="43">
+        <v>0.77578999999999998</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.92654000000000003</v>
+      </c>
+      <c r="M9" s="43">
+        <v>0.79342999999999997</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.94259999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.77915000000000001</v>
+      </c>
+      <c r="D11" s="42">
+        <v>0.80284</v>
+      </c>
+      <c r="E11" s="43">
+        <v>0.82104999999999995</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.96794999999999998</v>
+      </c>
+      <c r="G11" s="43">
+        <v>0.79459000000000002</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.96750999999999998</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="43">
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.95369000000000004</v>
+      </c>
+      <c r="M11" s="43">
+        <v>0.8115</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.96050999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.79710000000000003</v>
+      </c>
+      <c r="D12" s="42">
+        <v>0.82433000000000001</v>
+      </c>
+      <c r="E12" s="43">
+        <v>0.83189999999999997</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.97238999999999998</v>
+      </c>
+      <c r="G12" s="43">
+        <v>0.81798000000000004</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.96694000000000002</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="43">
+        <v>0.82074000000000003</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.95042000000000004</v>
+      </c>
+      <c r="M12" s="43">
+        <v>0.81449000000000005</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.97238999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.79418</v>
+      </c>
+      <c r="D13" s="42">
+        <v>0.81196999999999997</v>
+      </c>
+      <c r="E13" s="43">
+        <v>0.82440000000000002</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.97238999999999998</v>
+      </c>
+      <c r="G13" s="43">
+        <v>0.82596000000000003</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.96591000000000005</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="43">
+        <v>0.82899</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.96599000000000002</v>
+      </c>
+      <c r="M13" s="43">
+        <v>0.82504999999999995</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.78425</v>
+      </c>
+      <c r="D15" s="42">
+        <v>0.79552999999999996</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0.83194000000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.97624999999999995</v>
+      </c>
+      <c r="G15" s="43">
+        <v>0.81467999999999996</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.98206000000000004</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="43">
+        <v>0.81762000000000001</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.99007000000000001</v>
+      </c>
+      <c r="M15" s="43">
+        <v>0.81862999999999997</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.98438999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="D16" s="42">
+        <v>0.80759999999999998</v>
+      </c>
+      <c r="E16" s="43">
+        <v>0.83494999999999997</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.98206000000000004</v>
+      </c>
+      <c r="G16" s="43">
+        <v>0.84582999999999997</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.98670999999999998</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="43">
+        <v>0.83845999999999998</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.99007000000000001</v>
+      </c>
+      <c r="M16" s="43">
+        <v>0.83370999999999995</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.98206000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.79803000000000002</v>
+      </c>
+      <c r="D17" s="42">
+        <v>0.80239000000000005</v>
+      </c>
+      <c r="E17" s="43">
+        <v>0.84172000000000002</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.98206000000000004</v>
+      </c>
+      <c r="G17" s="43">
+        <v>0.84143999999999997</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.98670999999999998</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="43">
+        <v>0.84169000000000005</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.98541999999999996</v>
+      </c>
+      <c r="M17" s="43">
+        <v>0.84162999999999999</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.81601999999999997</v>
+      </c>
+      <c r="D19" s="42">
+        <v>0.82676000000000005</v>
+      </c>
+      <c r="E19" s="43">
+        <v>0.86685000000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.99065000000000003</v>
+      </c>
+      <c r="G19" s="43">
+        <v>0.83996000000000004</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.99872000000000005</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="43">
+        <v>0.86787000000000003</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="43">
+        <v>0.84923000000000004</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.99622999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.83421000000000001</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.82038</v>
+      </c>
+      <c r="E20" s="43">
+        <v>0.87556999999999996</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.99872000000000005</v>
+      </c>
+      <c r="G20" s="43">
+        <v>0.89573000000000003</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.99872000000000005</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="43">
+        <v>0.88493999999999995</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.99628000000000005</v>
+      </c>
+      <c r="M20" s="43">
+        <v>0.88787000000000005</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.99872000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.8387</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.82010000000000005</v>
+      </c>
+      <c r="E21" s="43">
+        <v>0.90032000000000001</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.99872000000000005</v>
+      </c>
+      <c r="G21" s="43">
+        <v>0.89493999999999996</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.99872000000000005</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="43">
+        <v>0.89737999999999996</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="43">
+        <v>0.88953000000000004</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.80523</v>
+      </c>
+      <c r="D23" s="42">
+        <v>0.81859000000000004</v>
+      </c>
+      <c r="E23" s="43">
+        <v>0.86978</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.99602999999999997</v>
+      </c>
+      <c r="G23" s="43">
+        <v>0.84604999999999997</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="43">
+        <v>0.87831000000000004</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="43">
+        <v>0.84943000000000002</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.99946000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.81721999999999995</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.81398999999999999</v>
+      </c>
+      <c r="E24" s="43">
+        <v>0.88432999999999995</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="43">
+        <v>0.90134999999999998</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="43">
+        <v>0.88131999999999999</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.99492000000000003</v>
+      </c>
+      <c r="M24" s="43">
+        <v>0.89739000000000002</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.82677999999999996</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.80498999999999998</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0.88698999999999995</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="43">
+        <v>0.89571999999999996</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="43">
+        <v>0.89429000000000003</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="43">
+        <v>0.90315000000000001</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.83155999999999997</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.83091999999999999</v>
+      </c>
+      <c r="E27" s="43">
+        <v>0.88512999999999997</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="43">
+        <v>0.86445000000000005</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="43">
+        <v>0.88976</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="43">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0.84187999999999996</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.84147000000000005</v>
+      </c>
+      <c r="E28" s="43">
+        <v>0.90261000000000002</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="43">
+        <v>0.91673000000000004</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="43">
+        <v>0.90703999999999996</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="43">
+        <v>0.90376999999999996</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0.84994000000000003</v>
+      </c>
+      <c r="D29" s="42">
+        <v>0.85568999999999995</v>
+      </c>
+      <c r="E29" s="43">
+        <v>0.89764999999999995</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="43">
+        <v>0.89542999999999995</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="43">
+        <v>0.90803</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="43">
+        <v>0.91522000000000003</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0.82218999999999998</v>
+      </c>
+      <c r="E31" s="43">
+        <v>0.89956999999999998</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="43">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="43">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="43">
+        <v>0.86924000000000001</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0.85609000000000002</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0.85568999999999995</v>
+      </c>
+      <c r="E32" s="43">
+        <v>0.90954000000000002</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="43">
+        <v>0.91898000000000002</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="43">
+        <v>0.91783999999999999</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="43">
+        <v>0.90681</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0.84496000000000004</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="E33" s="43">
+        <v>0.91142999999999996</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="43">
+        <v>0.90744000000000002</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="43">
+        <v>0.90783999999999998</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="43">
+        <v>0.92554000000000003</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0.89742999999999995</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.85170999999999997</v>
+      </c>
+      <c r="E35" s="43">
+        <v>0.92096</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="43">
+        <v>0.89104000000000005</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="43">
+        <v>0.92835000000000001</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="43">
+        <v>0.89466000000000001</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0.90244999999999997</v>
+      </c>
+      <c r="D36" s="42">
+        <v>0.90366000000000002</v>
+      </c>
+      <c r="E36" s="43">
+        <v>0.92645</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="43">
+        <v>0.93089</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="43">
+        <v>0.93718000000000001</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="43">
+        <v>0.92054000000000002</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="12">
+        <v>0.87409000000000003</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.84691000000000005</v>
+      </c>
+      <c r="E37" s="43">
+        <v>0.91517999999999999</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="43">
+        <v>0.92649000000000004</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="43">
+        <v>0.91391</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="43">
+        <v>0.93194999999999995</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F47EC5-8297-E145-A23B-5A77F0558FAA}">
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:D1048576"/>
+    <sheetView zoomScale="59" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5659,7 +9031,7 @@
     <col min="1" max="7" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>37</v>
       </c>
@@ -5672,7 +9044,7 @@
       </c>
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>24</v>
       </c>
@@ -5695,7 +9067,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="28">
         <v>0.1</v>
       </c>
@@ -5718,7 +9090,7 @@
         <v>0.85301000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>27</v>
@@ -5735,7 +9107,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>26</v>
@@ -5756,7 +9128,7 @@
         <v>0.85133999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>27</v>
@@ -5776,7 +9148,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>26</v>
@@ -5800,7 +9172,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>27</v>
@@ -5819,8 +9191,11 @@
       <c r="J8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="AF8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5831,8 +9206,17 @@
       <c r="J9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W9" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.2</v>
       </c>
@@ -5854,8 +9238,17 @@
       <c r="G10" s="28">
         <v>0.92337999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="W10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -5882,8 +9275,17 @@
       <c r="Q11" s="30"/>
       <c r="R11" s="30"/>
       <c r="S11" s="30"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>26</v>
@@ -5903,8 +9305,17 @@
       <c r="G12" s="28">
         <v>0.91569</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>27</v>
@@ -5920,8 +9331,14 @@
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="1:19" ht="24" x14ac:dyDescent="0.3">
+      <c r="W13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -5952,8 +9369,14 @@
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
       <c r="R14" s="34"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -5969,8 +9392,14 @@
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W15" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5978,8 +9407,14 @@
       <c r="E16" s="7"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W16" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0.3</v>
       </c>
@@ -6001,8 +9436,14 @@
       <c r="G17" s="28">
         <v>0.95753999999999995</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W17" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>27</v>
@@ -6018,8 +9459,14 @@
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>26</v>
@@ -6039,8 +9486,14 @@
       <c r="G19" s="28">
         <v>0.95562000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W19" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>27</v>
@@ -6056,8 +9509,14 @@
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>26</v>
@@ -6077,8 +9536,14 @@
       <c r="G21" s="28">
         <v>0.95857000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W21" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="s">
         <v>27</v>
@@ -6094,8 +9559,14 @@
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W22" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6103,8 +9574,14 @@
       <c r="E23" s="7"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W23" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0.4</v>
       </c>
@@ -6126,8 +9603,14 @@
       <c r="G24" s="28">
         <v>0.99007000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W24" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="s">
         <v>27</v>
@@ -6143,8 +9626,14 @@
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W25" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="s">
         <v>26</v>
@@ -6164,8 +9653,14 @@
       <c r="G26" s="28">
         <v>0.98541999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W26" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>27</v>
@@ -6181,8 +9676,14 @@
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W27" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
         <v>26</v>
@@ -6205,8 +9706,14 @@
       <c r="K28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W28" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
         <v>27</v>
@@ -6225,8 +9732,14 @@
       <c r="K29" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W29" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6237,8 +9750,11 @@
       <c r="K30" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.5</v>
       </c>
@@ -6263,8 +9779,11 @@
       <c r="K31" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
         <v>27</v>
@@ -6280,8 +9799,11 @@
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>26</v>
@@ -6301,8 +9823,11 @@
       <c r="G33" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
         <v>27</v>
@@ -6318,8 +9843,11 @@
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>26</v>
@@ -6339,8 +9867,11 @@
       <c r="G35" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
         <v>27</v>
@@ -6359,8 +9890,11 @@
       <c r="K36" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -6371,8 +9905,11 @@
       <c r="K37" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>0.6</v>
       </c>
@@ -6395,8 +9932,11 @@
       <c r="K38" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>27</v>
@@ -6413,8 +9953,11 @@
       <c r="K39" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
         <v>26</v>
@@ -6432,8 +9975,11 @@
       <c r="G40" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
         <v>27</v>
@@ -6447,8 +9993,11 @@
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
         <v>26</v>
@@ -6466,8 +10015,11 @@
       <c r="G42" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
         <v>27</v>
@@ -6481,8 +10033,11 @@
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6493,8 +10048,11 @@
       <c r="K44" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>0.7</v>
       </c>
@@ -6517,8 +10075,11 @@
       <c r="K45" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
         <v>27</v>
@@ -6535,8 +10096,11 @@
       <c r="K46" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
         <v>26</v>
@@ -6557,8 +10121,11 @@
       <c r="K47" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="Z47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
         <v>27</v>
@@ -6572,6 +10139,9 @@
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
+      <c r="Z48" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
@@ -6838,212 +10408,212 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3 D5 D7">
-    <cfRule type="cellIs" dxfId="93" priority="318" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="318" operator="greaterThan">
       <formula>D4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 D6 D8">
-    <cfRule type="cellIs" dxfId="92" priority="317" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="317" operator="greaterThan">
       <formula>D3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="expression" dxfId="91" priority="256">
+    <cfRule type="expression" dxfId="166" priority="256">
       <formula>D3=MAX(D3:D8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3 E5 E7">
-    <cfRule type="cellIs" dxfId="90" priority="139" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="139" operator="greaterThan">
       <formula>E4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4 E6 E8">
-    <cfRule type="cellIs" dxfId="89" priority="138" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="138" operator="greaterThan">
       <formula>E3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E8">
-    <cfRule type="expression" dxfId="88" priority="137">
+    <cfRule type="expression" dxfId="163" priority="137">
       <formula>E3=MAX(E3:E8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17 E23 E19 E21">
-    <cfRule type="cellIs" dxfId="87" priority="111" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="111" operator="greaterThan">
       <formula>E18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18 E20 E22">
-    <cfRule type="cellIs" dxfId="86" priority="110" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="110" operator="greaterThan">
       <formula>E17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E23">
-    <cfRule type="expression" dxfId="85" priority="109">
+    <cfRule type="expression" dxfId="160" priority="109">
       <formula>E17=MAX(E$17:E$22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24 E26 E28">
-    <cfRule type="cellIs" dxfId="84" priority="102" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="102" operator="greaterThan">
       <formula>E25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25 E27 E29">
-    <cfRule type="cellIs" dxfId="83" priority="101" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="101" operator="greaterThan">
       <formula>E24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E29">
-    <cfRule type="expression" dxfId="82" priority="100">
+    <cfRule type="expression" dxfId="157" priority="100">
       <formula>E24=MAX(E24:E29)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24 D26 D28">
-    <cfRule type="cellIs" dxfId="81" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="74" operator="greaterThan">
       <formula>D25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 D27 D29">
-    <cfRule type="cellIs" dxfId="80" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="73" operator="greaterThan">
       <formula>D24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D29">
-    <cfRule type="expression" dxfId="79" priority="71">
+    <cfRule type="expression" dxfId="154" priority="71">
       <formula>D24=MAX(D24:D29)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31 E33 E35">
-    <cfRule type="cellIs" dxfId="78" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="66" operator="greaterThan">
       <formula>E32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32 E34 E36">
-    <cfRule type="cellIs" dxfId="77" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="65" operator="greaterThan">
       <formula>E31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E36">
-    <cfRule type="expression" dxfId="76" priority="64">
+    <cfRule type="expression" dxfId="151" priority="64">
       <formula>E31=MAX(E31:E36)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10 D12 D14">
-    <cfRule type="cellIs" dxfId="75" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="50" operator="greaterThan">
       <formula>D11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 D13 D15">
-    <cfRule type="cellIs" dxfId="74" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="49" operator="greaterThan">
       <formula>D10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D15">
-    <cfRule type="expression" dxfId="73" priority="48">
+    <cfRule type="expression" dxfId="148" priority="48">
       <formula>D10=MAX(D10:D15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 E12 E14">
-    <cfRule type="cellIs" dxfId="72" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="47" operator="greaterThan">
       <formula>E11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 E13 E15">
-    <cfRule type="cellIs" dxfId="71" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="46" operator="greaterThan">
       <formula>E10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E15">
-    <cfRule type="expression" dxfId="70" priority="45">
+    <cfRule type="expression" dxfId="145" priority="45">
       <formula>E10=MAX(E10:E15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38 E40 E42">
-    <cfRule type="cellIs" dxfId="69" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="35" operator="greaterThan">
       <formula>E39</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39 E41 E43">
-    <cfRule type="cellIs" dxfId="68" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="34" operator="greaterThan">
       <formula>E38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E43">
-    <cfRule type="expression" dxfId="67" priority="31">
+    <cfRule type="expression" dxfId="142" priority="31">
       <formula>E38=MAX(E$38:E$43)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45 E47 E49">
-    <cfRule type="cellIs" dxfId="66" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="30" operator="greaterThan">
       <formula>E46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46 E48 E50">
-    <cfRule type="cellIs" dxfId="65" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="29" operator="greaterThan">
       <formula>E45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E50">
-    <cfRule type="expression" dxfId="64" priority="28">
+    <cfRule type="expression" dxfId="139" priority="28">
       <formula>E45=MAX(E45:E50)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52 E54 E56">
-    <cfRule type="cellIs" dxfId="63" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="27" operator="greaterThan">
       <formula>E53</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53 E55 E57">
-    <cfRule type="cellIs" dxfId="62" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="26" operator="greaterThan">
       <formula>E52</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E57">
-    <cfRule type="expression" dxfId="61" priority="25">
+    <cfRule type="expression" dxfId="136" priority="25">
       <formula>E52=MAX(E52:E57)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59 E61 E63">
-    <cfRule type="cellIs" dxfId="60" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="24" operator="greaterThan">
       <formula>E60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60 E62 E64">
-    <cfRule type="cellIs" dxfId="59" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="23" operator="greaterThan">
       <formula>E59</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59:E64">
-    <cfRule type="expression" dxfId="58" priority="22">
+    <cfRule type="expression" dxfId="133" priority="22">
       <formula>E59=MAX(E$59:E$64)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17 D19 D21">
-    <cfRule type="cellIs" dxfId="57" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="21" operator="greaterThan">
       <formula>D18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18 D20 D22">
-    <cfRule type="cellIs" dxfId="56" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="20" operator="greaterThan">
       <formula>D17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="expression" dxfId="55" priority="19">
+    <cfRule type="expression" dxfId="130" priority="19">
       <formula>D17=MAX(D$17:D$22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31 D33 D35">
-    <cfRule type="cellIs" dxfId="54" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="5" operator="greaterThan">
       <formula>D32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32 D34 D36">
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="4" operator="greaterThan">
       <formula>D31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36">
-    <cfRule type="expression" dxfId="52" priority="1">
+    <cfRule type="expression" dxfId="127" priority="1">
       <formula>$D31=MAX(D$31:D$36)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7053,6 +10623,458 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37BB43C-E774-EB49-9CCF-F5260891435B}">
+  <dimension ref="A1:X43"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31:X43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" t="s">
+        <v>175</v>
+      </c>
+      <c r="S4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" t="s">
+        <v>176</v>
+      </c>
+      <c r="S6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="S7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" t="s">
+        <v>177</v>
+      </c>
+      <c r="S9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>178</v>
+      </c>
+      <c r="S11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" t="s">
+        <v>84</v>
+      </c>
+      <c r="S12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="N31" t="s">
+        <v>187</v>
+      </c>
+      <c r="X31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>166</v>
+      </c>
+      <c r="N32" t="s">
+        <v>66</v>
+      </c>
+      <c r="X32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>167</v>
+      </c>
+      <c r="N33" t="s">
+        <v>188</v>
+      </c>
+      <c r="X33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>168</v>
+      </c>
+      <c r="N34" t="s">
+        <v>68</v>
+      </c>
+      <c r="X34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>169</v>
+      </c>
+      <c r="N35" t="s">
+        <v>189</v>
+      </c>
+      <c r="X35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>170</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+      <c r="X36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>171</v>
+      </c>
+      <c r="N37" t="s">
+        <v>190</v>
+      </c>
+      <c r="X37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>172</v>
+      </c>
+      <c r="N38" t="s">
+        <v>72</v>
+      </c>
+      <c r="X38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>173</v>
+      </c>
+      <c r="N39" t="s">
+        <v>191</v>
+      </c>
+      <c r="X39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>174</v>
+      </c>
+      <c r="N40" t="s">
+        <v>74</v>
+      </c>
+      <c r="X40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="N41" t="s">
+        <v>192</v>
+      </c>
+      <c r="X41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="N42" t="s">
+        <v>76</v>
+      </c>
+      <c r="X42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="N43" t="s">
+        <v>193</v>
+      </c>
+      <c r="X43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96EA67E-1C8F-EA4F-A85B-C3D6E868078A}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -7107,11 +11129,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483DD27E-B406-CE4C-A04B-DF027E9B9564}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -8114,12 +12136,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8765F714-DA0C-CD45-9CDA-9555A6288574}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8950,190 +12972,190 @@
     <mergeCell ref="H1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="51" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="71" operator="greaterThan">
       <formula>D47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="50" priority="70">
+    <cfRule type="expression" dxfId="125" priority="70">
       <formula>D48=MAX(D$17:D$22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="49" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="31" operator="greaterThan">
       <formula>C5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3 C5">
-    <cfRule type="cellIs" dxfId="48" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="38" operator="greaterThan">
       <formula>C4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4 C6">
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="37" operator="greaterThan">
       <formula>C3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C6">
-    <cfRule type="expression" dxfId="46" priority="36">
+    <cfRule type="expression" dxfId="121" priority="36">
       <formula>C3=MAX(C3:C8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10 C14">
-    <cfRule type="cellIs" dxfId="45" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="35" operator="greaterThan">
       <formula>C11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10 C14">
-    <cfRule type="expression" dxfId="44" priority="34">
+    <cfRule type="expression" dxfId="119" priority="34">
       <formula>C10=MAX(C10:C15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18 C22">
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="33" operator="greaterThan">
       <formula>C17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18 C22">
-    <cfRule type="expression" dxfId="42" priority="32">
+    <cfRule type="expression" dxfId="117" priority="32">
       <formula>C18=MAX(C$17:C$22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="41" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="30" operator="greaterThan">
       <formula>C8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="40" priority="29">
+    <cfRule type="expression" dxfId="115" priority="29">
       <formula>C7=MAX(C7:C12)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="39" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="28" operator="greaterThan">
       <formula>C9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="38" priority="27">
+    <cfRule type="expression" dxfId="113" priority="27">
       <formula>C8=MAX(C8:C13)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="37" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="26" operator="greaterThan">
       <formula>C10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="36" priority="25">
+    <cfRule type="expression" dxfId="111" priority="25">
       <formula>C9=MAX(C9:C14)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="35" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="24" operator="greaterThan">
       <formula>C12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="34" priority="23">
+    <cfRule type="expression" dxfId="109" priority="23">
       <formula>C11=MAX(C$17:C$22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="33" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="22" operator="greaterThan">
       <formula>C13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="32" priority="21">
+    <cfRule type="expression" dxfId="107" priority="21">
       <formula>C12=MAX(C$17:C$22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="31" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="20" operator="greaterThan">
       <formula>C14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="30" priority="19">
+    <cfRule type="expression" dxfId="105" priority="19">
       <formula>C13=MAX(C$17:C$22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="18" operator="greaterThan">
       <formula>C16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" dxfId="103" priority="16">
       <formula>C15=MAX(C15:C20)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="17">
+    <cfRule type="expression" dxfId="102" priority="17">
       <formula>C15=MAX(C15:C20)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="15" operator="greaterThan">
       <formula>C17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="25" priority="13">
+    <cfRule type="expression" dxfId="100" priority="13">
       <formula>C16=MAX(C16:C21)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="14">
+    <cfRule type="expression" dxfId="99" priority="14">
       <formula>C16=MAX(C16:C21)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="12" operator="greaterThan">
       <formula>C18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="97" priority="10">
       <formula>C17=MAX(C17:C22)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="96" priority="11">
       <formula>C17=MAX(C17:C22)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="9" operator="greaterThan">
       <formula>C20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="94" priority="7">
       <formula>C19=MAX(C19:C24)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="93" priority="8">
       <formula>C19=MAX(C19:C24)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="6" operator="greaterThan">
       <formula>C21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="91" priority="4">
       <formula>C20=MAX(C20:C25)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="90" priority="5">
       <formula>C20=MAX(C20:C25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="3" operator="greaterThan">
       <formula>C22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="88" priority="1">
       <formula>C21=MAX(C21:C26)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="87" priority="2">
       <formula>C21=MAX(C21:C26)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9141,12 +13163,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBCD708-A45A-884E-BE82-74E94F34E8C7}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B2" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9344,7 +13366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2D56ED-8755-454A-B8B2-739489386FEC}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -9657,7 +13679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B26ACE7-D5B5-444D-8E91-BEA9CB9FFE8F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -9724,1005 +13746,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB745AC-C3D6-E64C-8099-09FCDDE94C4C}">
-  <dimension ref="A1:N45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="9" width="21.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="35"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0.69740000000000002</v>
-      </c>
-      <c r="D3" s="22">
-        <v>0.85355000000000003</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0.69945000000000002</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0.84438999999999997</v>
-      </c>
-      <c r="G3" s="22">
-        <v>0.69845000000000002</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0.85297000000000001</v>
-      </c>
-      <c r="I3" s="22">
-        <v>0.70165999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="22">
-        <v>0.73097000000000001</v>
-      </c>
-      <c r="D4" s="22">
-        <v>0.83203000000000005</v>
-      </c>
-      <c r="E4" s="22">
-        <v>0.73514999999999997</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0.84943999999999997</v>
-      </c>
-      <c r="G4" s="23">
-        <v>0.72219</v>
-      </c>
-      <c r="H4" s="22">
-        <v>0.84292</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0.71933999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="22">
-        <v>0.71875</v>
-      </c>
-      <c r="D5" s="22">
-        <v>0.85563999999999996</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0.72743999999999998</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0.84419999999999995</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0.71735000000000004</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0.85382000000000002</v>
-      </c>
-      <c r="I5" s="22">
-        <v>0.72572999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="22">
-        <v>0.73245000000000005</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0.92466000000000004</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0.73892999999999998</v>
-      </c>
-      <c r="F7" s="22">
-        <v>0.93328</v>
-      </c>
-      <c r="G7" s="23">
-        <v>0.72069000000000005</v>
-      </c>
-      <c r="H7" s="22">
-        <v>0.93271000000000004</v>
-      </c>
-      <c r="I7" s="22">
-        <v>0.74951000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="22">
-        <v>0.73196000000000006</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0.93103000000000002</v>
-      </c>
-      <c r="E8" s="23">
-        <v>0.72962000000000005</v>
-      </c>
-      <c r="F8" s="22">
-        <v>0.92352000000000001</v>
-      </c>
-      <c r="G8" s="22">
-        <v>0.75105999999999995</v>
-      </c>
-      <c r="H8" s="22">
-        <v>0.92469999999999997</v>
-      </c>
-      <c r="I8" s="22">
-        <v>0.76776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="22">
-        <v>0.73706000000000005</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0.92617000000000005</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.73834</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0.92840999999999996</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0.73929</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0.92861000000000005</v>
-      </c>
-      <c r="I9" s="22">
-        <v>0.76007000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="22">
-        <v>0.77795999999999998</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0.95960999999999996</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.76992000000000005</v>
-      </c>
-      <c r="F11" s="22">
-        <v>0.96165999999999996</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0.75895000000000001</v>
-      </c>
-      <c r="H11" s="22">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="I11" s="22">
-        <v>0.80042000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="22">
-        <v>0.77432000000000001</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0.95592999999999995</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0.76200999999999997</v>
-      </c>
-      <c r="F12" s="22">
-        <v>0.94955000000000001</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0.77861000000000002</v>
-      </c>
-      <c r="H12" s="22">
-        <v>0.94942000000000004</v>
-      </c>
-      <c r="I12" s="22">
-        <v>0.78310999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0.77095999999999998</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0.96255999999999997</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0.76136999999999999</v>
-      </c>
-      <c r="F13" s="22">
-        <v>0.95931999999999995</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0.76658999999999999</v>
-      </c>
-      <c r="H13" s="22">
-        <v>0.96021999999999996</v>
-      </c>
-      <c r="I13" s="22">
-        <v>0.77370000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="22">
-        <v>0.80715999999999999</v>
-      </c>
-      <c r="D15" s="22">
-        <v>0.99007000000000001</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0.79352</v>
-      </c>
-      <c r="F15" s="22">
-        <v>0.97731999999999997</v>
-      </c>
-      <c r="G15" s="23">
-        <v>0.80078000000000005</v>
-      </c>
-      <c r="H15" s="22">
-        <v>0.99007000000000001</v>
-      </c>
-      <c r="I15" s="23">
-        <v>0.80103000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="22">
-        <v>0.78561999999999999</v>
-      </c>
-      <c r="D16" s="22">
-        <v>0.99007000000000001</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0.78995000000000004</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0.98541999999999996</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0.79520000000000002</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0.99007000000000001</v>
-      </c>
-      <c r="I16" s="23">
-        <v>0.78147999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="22">
-        <v>0.79239999999999999</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0.98682000000000003</v>
-      </c>
-      <c r="E17" s="23">
-        <v>0.78949000000000003</v>
-      </c>
-      <c r="F17" s="22">
-        <v>0.99007000000000001</v>
-      </c>
-      <c r="G17" s="23">
-        <v>0.78173000000000004</v>
-      </c>
-      <c r="H17" s="22">
-        <v>0.99007000000000001</v>
-      </c>
-      <c r="I17" s="22">
-        <v>0.79627999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="22">
-        <v>0.85775000000000001</v>
-      </c>
-      <c r="D19" s="22">
-        <v>1</v>
-      </c>
-      <c r="E19" s="23">
-        <v>0.85041</v>
-      </c>
-      <c r="F19" s="22">
-        <v>0.99872000000000005</v>
-      </c>
-      <c r="G19" s="23">
-        <v>0.84724999999999995</v>
-      </c>
-      <c r="H19" s="22">
-        <v>1</v>
-      </c>
-      <c r="I19" s="23">
-        <v>0.85338999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="22">
-        <v>0.84772999999999998</v>
-      </c>
-      <c r="D20" s="22">
-        <v>0.99883999999999995</v>
-      </c>
-      <c r="E20" s="23">
-        <v>0.84733000000000003</v>
-      </c>
-      <c r="F20" s="22">
-        <v>1</v>
-      </c>
-      <c r="G20" s="23">
-        <v>0.84694000000000003</v>
-      </c>
-      <c r="H20" s="22">
-        <v>1</v>
-      </c>
-      <c r="I20" s="23">
-        <v>0.83745000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="22">
-        <v>0.86216999999999999</v>
-      </c>
-      <c r="D21" s="22">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
-        <v>0.84894000000000003</v>
-      </c>
-      <c r="F21" s="22">
-        <v>1</v>
-      </c>
-      <c r="G21" s="23">
-        <v>0.85619999999999996</v>
-      </c>
-      <c r="H21" s="22">
-        <v>1</v>
-      </c>
-      <c r="I21" s="23">
-        <v>0.84226000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="24" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="22">
-        <v>0.69740000000000002</v>
-      </c>
-      <c r="D26" s="22">
-        <v>0.69945000000000002</v>
-      </c>
-      <c r="E26" s="22">
-        <v>0.69845000000000002</v>
-      </c>
-      <c r="F26" s="22">
-        <v>0.70165999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="22">
-        <v>0.73097000000000001</v>
-      </c>
-      <c r="D27" s="22">
-        <v>0.73514999999999997</v>
-      </c>
-      <c r="E27" s="23">
-        <v>0.72219</v>
-      </c>
-      <c r="F27" s="23">
-        <v>0.71933999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="22">
-        <v>0.71875</v>
-      </c>
-      <c r="D28" s="22">
-        <v>0.72743999999999998</v>
-      </c>
-      <c r="E28" s="23">
-        <v>0.71735000000000004</v>
-      </c>
-      <c r="F28" s="22">
-        <v>0.72572999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="22">
-        <v>0.73245000000000005</v>
-      </c>
-      <c r="D30" s="22">
-        <v>0.73892999999999998</v>
-      </c>
-      <c r="E30" s="23">
-        <v>0.72069000000000005</v>
-      </c>
-      <c r="F30" s="22">
-        <v>0.74951000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="22">
-        <v>0.73196000000000006</v>
-      </c>
-      <c r="D31" s="23">
-        <v>0.72962000000000005</v>
-      </c>
-      <c r="E31" s="22">
-        <v>0.75105999999999995</v>
-      </c>
-      <c r="F31" s="22">
-        <v>0.76776</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="22">
-        <v>0.73706000000000005</v>
-      </c>
-      <c r="D32" s="22">
-        <v>0.73834</v>
-      </c>
-      <c r="E32" s="22">
-        <v>0.73929</v>
-      </c>
-      <c r="F32" s="22">
-        <v>0.76007000000000002</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-    </row>
-    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="H33" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-    </row>
-    <row r="34" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="22">
-        <v>0.77795999999999998</v>
-      </c>
-      <c r="D34" s="23">
-        <v>0.76992000000000005</v>
-      </c>
-      <c r="E34" s="23">
-        <v>0.75895000000000001</v>
-      </c>
-      <c r="F34" s="22">
-        <v>0.80042000000000002</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-    </row>
-    <row r="35" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="22">
-        <v>0.77432000000000001</v>
-      </c>
-      <c r="D35" s="23">
-        <v>0.76200999999999997</v>
-      </c>
-      <c r="E35" s="22">
-        <v>0.77861000000000002</v>
-      </c>
-      <c r="F35" s="22">
-        <v>0.78310999999999997</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="22">
-        <v>0.77095999999999998</v>
-      </c>
-      <c r="D36" s="23">
-        <v>0.76136999999999999</v>
-      </c>
-      <c r="E36" s="23">
-        <v>0.76658999999999999</v>
-      </c>
-      <c r="F36" s="22">
-        <v>0.77370000000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="22">
-        <v>0.80715999999999999</v>
-      </c>
-      <c r="D38" s="23">
-        <v>0.79352</v>
-      </c>
-      <c r="E38" s="23">
-        <v>0.80078000000000005</v>
-      </c>
-      <c r="F38" s="23">
-        <v>0.80103000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="22">
-        <v>0.78561999999999999</v>
-      </c>
-      <c r="D39" s="22">
-        <v>0.78995000000000004</v>
-      </c>
-      <c r="E39" s="22">
-        <v>0.79520000000000002</v>
-      </c>
-      <c r="F39" s="23">
-        <v>0.78147999999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="22">
-        <v>0.79239999999999999</v>
-      </c>
-      <c r="D40" s="23">
-        <v>0.78949000000000003</v>
-      </c>
-      <c r="E40" s="23">
-        <v>0.78173000000000004</v>
-      </c>
-      <c r="F40" s="22">
-        <v>0.79627999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="22">
-        <v>0.85775000000000001</v>
-      </c>
-      <c r="D42" s="23">
-        <v>0.85041</v>
-      </c>
-      <c r="E42" s="23">
-        <v>0.84724999999999995</v>
-      </c>
-      <c r="F42" s="23">
-        <v>0.85338999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="22">
-        <v>0.84772999999999998</v>
-      </c>
-      <c r="D43" s="23">
-        <v>0.84733000000000003</v>
-      </c>
-      <c r="E43" s="23">
-        <v>0.84694000000000003</v>
-      </c>
-      <c r="F43" s="23">
-        <v>0.83745000000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="22">
-        <v>0.86216999999999999</v>
-      </c>
-      <c r="D44" s="23">
-        <v>0.84894000000000003</v>
-      </c>
-      <c r="E44" s="23">
-        <v>0.85619999999999996</v>
-      </c>
-      <c r="F44" s="23">
-        <v>0.84226000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="11" priority="43" operator="greaterThan">
-      <formula>C5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="10" priority="42">
-      <formula>C6=MAX(C6:C11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10 C14">
-    <cfRule type="cellIs" dxfId="9" priority="41" operator="greaterThan">
-      <formula>C11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10 C14">
-    <cfRule type="expression" dxfId="8" priority="40">
-      <formula>C10=MAX(C10:C15)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18 C22">
-    <cfRule type="cellIs" dxfId="7" priority="39" operator="greaterThan">
-      <formula>C17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18 C22">
-    <cfRule type="expression" dxfId="6" priority="38">
-      <formula>C18=MAX(C$17:C$22)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>C28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>C29=MAX(C29:C34)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33 C37">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>C34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33 C37">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>C33=MAX(C33:C38)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41 C45">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>C40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41 C45">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>C41=MAX(C$17:C$22)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>